--- a/Excel/097_Testes_Entrevistas_5.xlsx
+++ b/Excel/097_Testes_Entrevistas_5.xlsx
@@ -1,38 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Curso de Excel\Testes Entrevistas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608F85D2-A84D-43A6-B481-0528C1FB06F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F9DD15-0005-49B5-B458-D3D89C966CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C162B555-F4AE-41AA-9236-C559E5C69857}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="2" xr2:uid="{C162B555-F4AE-41AA-9236-C559E5C69857}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste 5" sheetId="1" r:id="rId1"/>
     <sheet name="Dados" sheetId="3" r:id="rId2"/>
+    <sheet name="Tab_dinâmica" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="37" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
   <si>
     <t>Mês</t>
   </si>
@@ -203,17 +201,33 @@
   </si>
   <si>
     <t>PERGUNTAS PREPARATÓRIAS PARA ENTREVISTAS E CONCURSOS</t>
+  </si>
+  <si>
+    <t>Soma de Total Vendas</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Trimestre</t>
+  </si>
+  <si>
+    <t>Trimestre 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;R$&quot;\ #,##0;[Red]\-&quot;R$&quot;\ #,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-416]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -396,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -444,26 +458,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -480,6 +500,488 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rodrigo Costa" refreshedDate="45484.830440509257" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="26" xr:uid="{09F84CA1-7945-42A2-9FB0-1658534F544C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J27" sheet="Dados"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Estado" numFmtId="0">
+      <sharedItems count="4">
+        <s v="São Paulo"/>
+        <s v="Bahia"/>
+        <s v="Paraná"/>
+        <s v="Ceará"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Cidade" numFmtId="0">
+      <sharedItems count="11">
+        <s v="Osasco"/>
+        <s v="Cachoeira"/>
+        <s v="Barracão"/>
+        <s v="Guarulhos"/>
+        <s v="Campinas"/>
+        <s v="Aurora"/>
+        <s v="Carapicuíba"/>
+        <s v="Cafelândia"/>
+        <s v="Abaíra"/>
+        <s v="Limeira"/>
+        <s v="Cedro"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Cetegoria" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Código Produto" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2290" maxValue="19160"/>
+    </cacheField>
+    <cacheField name="Produto" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Mês" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-01-01T00:00:00" maxDate="2022-09-09T00:00:00"/>
+    </cacheField>
+    <cacheField name="Qtd" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="123"/>
+    </cacheField>
+    <cacheField name="Preço" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="34.9" maxValue="1200"/>
+    </cacheField>
+    <cacheField name="Total Vendas" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="209.39999999999998" maxValue="23247"/>
+    </cacheField>
+    <cacheField name="Trimestre" numFmtId="164">
+      <sharedItems count="3">
+        <s v="Trimestre 1"/>
+        <s v="Trimestre 2"/>
+        <s v="Trimestre 3"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Utensilio"/>
+    <n v="14624"/>
+    <s v="Panela De Pressão"/>
+    <d v="2022-01-01T00:00:00"/>
+    <n v="45"/>
+    <n v="56.99"/>
+    <n v="2564.5500000000002"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Roupas"/>
+    <n v="2714"/>
+    <s v="Kit 15 Tangas"/>
+    <d v="2022-01-11T00:00:00"/>
+    <n v="23"/>
+    <n v="38.770000000000003"/>
+    <n v="891.71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Celulares"/>
+    <n v="4550"/>
+    <s v="Xiaomi Redmi 9 (Global)"/>
+    <d v="2022-01-21T00:00:00"/>
+    <n v="12"/>
+    <n v="1200"/>
+    <n v="14400"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="Roupas"/>
+    <n v="7494"/>
+    <s v="Terno Slim"/>
+    <d v="2022-01-31T00:00:00"/>
+    <n v="123"/>
+    <n v="189"/>
+    <n v="23247"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Utensilio"/>
+    <n v="4820"/>
+    <s v="Kit Bomba A Vácuo Para Vinho"/>
+    <d v="2022-02-10T00:00:00"/>
+    <n v="20"/>
+    <n v="37.99"/>
+    <n v="759.80000000000007"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Roupas"/>
+    <n v="14264"/>
+    <s v="Kit 120 Tangas"/>
+    <d v="2022-02-20T00:00:00"/>
+    <n v="23"/>
+    <n v="165.6"/>
+    <n v="3808.7999999999997"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Utensilio"/>
+    <n v="9988"/>
+    <s v="Panela De Pressão 4,5litros"/>
+    <d v="2022-03-02T00:00:00"/>
+    <n v="31"/>
+    <n v="56.99"/>
+    <n v="1766.69"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Utensilio"/>
+    <n v="4226"/>
+    <s v="Kit De Acessórios Para Banheiro"/>
+    <d v="2022-03-12T00:00:00"/>
+    <n v="45"/>
+    <n v="49"/>
+    <n v="2205"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Móveis"/>
+    <n v="19160"/>
+    <s v="Colchão Casal de espuma"/>
+    <d v="2022-03-22T00:00:00"/>
+    <n v="2"/>
+    <n v="733.9"/>
+    <n v="1467.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Utensilio"/>
+    <n v="17854"/>
+    <s v="Moedor De Cafe Manual"/>
+    <d v="2022-04-01T00:00:00"/>
+    <n v="4"/>
+    <n v="116.99"/>
+    <n v="467.96"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="Roupas"/>
+    <n v="7494"/>
+    <s v="Terno Slim"/>
+    <d v="2022-04-11T00:00:00"/>
+    <n v="123"/>
+    <n v="189"/>
+    <n v="23247"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="Celulares"/>
+    <n v="12630"/>
+    <s v="LG K22 Dual SIM 32 GB"/>
+    <d v="2022-04-21T00:00:00"/>
+    <n v="3"/>
+    <n v="999"/>
+    <n v="2997"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="Utensilio"/>
+    <n v="17608"/>
+    <s v="Spray Borrifador Pulverizador"/>
+    <d v="2022-05-01T00:00:00"/>
+    <n v="6"/>
+    <n v="34.9"/>
+    <n v="209.39999999999998"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="Roupas"/>
+    <n v="5740"/>
+    <s v="Camiseta Regata"/>
+    <d v="2022-05-11T00:00:00"/>
+    <n v="34"/>
+    <n v="53.91"/>
+    <n v="1832.9399999999998"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="Eletronicos"/>
+    <n v="13700"/>
+    <s v="Headset gamer Knup KP-400"/>
+    <d v="2022-05-21T00:00:00"/>
+    <n v="12"/>
+    <n v="102"/>
+    <n v="1224"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="Roupas"/>
+    <n v="2714"/>
+    <s v="Kit 15 Tangas"/>
+    <d v="2022-05-31T00:00:00"/>
+    <n v="29"/>
+    <n v="38.770000000000003"/>
+    <n v="1124.3300000000002"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <s v="Roupas"/>
+    <n v="3886"/>
+    <s v="Calça Jeans Feminina"/>
+    <d v="2022-06-10T00:00:00"/>
+    <n v="45"/>
+    <n v="98.9"/>
+    <n v="4450.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="Utensilio"/>
+    <n v="5982"/>
+    <s v="Cafeteira Aluminio Extra"/>
+    <d v="2022-06-20T00:00:00"/>
+    <n v="9"/>
+    <n v="50"/>
+    <n v="450"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="Eletronicos"/>
+    <n v="15632"/>
+    <s v="Corset Corselet Underbust "/>
+    <d v="2022-06-30T00:00:00"/>
+    <n v="18"/>
+    <n v="99.99"/>
+    <n v="1799.82"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Roupas"/>
+    <n v="5740"/>
+    <s v="Camiseta Regata"/>
+    <d v="2022-07-10T00:00:00"/>
+    <n v="12"/>
+    <n v="53.91"/>
+    <n v="646.91999999999996"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Calçados"/>
+    <n v="11340"/>
+    <s v="Botas Feminina Montaria"/>
+    <d v="2022-07-20T00:00:00"/>
+    <n v="14"/>
+    <n v="149.9"/>
+    <n v="2098.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="Roupas"/>
+    <n v="2290"/>
+    <s v="Camiseta Cinta Modeladora"/>
+    <d v="2022-07-30T00:00:00"/>
+    <n v="41"/>
+    <n v="53.99"/>
+    <n v="2213.59"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Roupas"/>
+    <n v="7530"/>
+    <s v="Terno Slim Microfibra"/>
+    <d v="2022-08-09T00:00:00"/>
+    <n v="34"/>
+    <n v="189"/>
+    <n v="6426"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="Utensilio"/>
+    <n v="2345"/>
+    <s v="Caixa de ferramentas Fercar"/>
+    <d v="2022-08-19T00:00:00"/>
+    <n v="21"/>
+    <n v="143.12"/>
+    <n v="3005.52"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="Roupas"/>
+    <n v="3886"/>
+    <s v="Calça Jeans Feminina"/>
+    <d v="2022-08-29T00:00:00"/>
+    <n v="12"/>
+    <n v="98.9"/>
+    <n v="1186.8000000000002"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <s v="Utensilio"/>
+    <n v="14624"/>
+    <s v="Panela De Pressão"/>
+    <d v="2022-09-08T00:00:00"/>
+    <n v="21"/>
+    <n v="56.99"/>
+    <n v="1196.79"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6118D830-E876-4CD0-9B6B-B7D1A3F4F792}" name="Tabela dinâmica5" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="8"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="9" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Total Vendas" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,123 +1283,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D957BC4-26C5-4A20-AE58-7946F32FE6C5}">
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="113.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="4.23046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="113.69140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" s="19" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="2:14" s="17" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" s="17" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="2:14" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-    </row>
-    <row r="4" spans="2:14" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-    </row>
-    <row r="5" spans="2:14" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+    </row>
+    <row r="3" spans="2:14" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+    </row>
+    <row r="4" spans="2:14" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="2:14" s="17" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
+      <c r="B5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="2:14" s="17" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="2:14" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="14" spans="2:14" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="2:14" ht="26.15" x14ac:dyDescent="0.4">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="14" spans="2:14" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-    </row>
-    <row r="16" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
+    <row r="15" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="22"/>
+      <c r="C15" s="21"/>
+    </row>
+    <row r="16" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="22"/>
+      <c r="C16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -912,21 +1414,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA5FE51-CFAE-4142-8D28-1C37D0B58A4C}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.21875" style="13" customWidth="1"/>
-    <col min="2" max="3" width="22.5546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="13" customWidth="1"/>
-    <col min="6" max="8" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.23046875" style="13" customWidth="1"/>
+    <col min="2" max="3" width="22.53515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="26.3046875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="41.3046875" style="13" customWidth="1"/>
+    <col min="6" max="8" width="19.69140625" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="12.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -954,8 +1459,11 @@
       <c r="I1" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
@@ -984,8 +1492,12 @@
         <f>G2*H2</f>
         <v>2564.5500000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J2" s="27" t="str">
+        <f>"Trimestre "&amp;ROUNDUP(MONTH(F2)/3,0)</f>
+        <v>Trimestre 1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
@@ -1014,8 +1526,12 @@
         <f t="shared" ref="I3:I24" si="0">G3*H3</f>
         <v>891.71</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J3" s="27" t="str">
+        <f t="shared" ref="J3:J27" si="1">"Trimestre "&amp;ROUNDUP(MONTH(F3)/3,0)</f>
+        <v>Trimestre 1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1044,8 +1560,12 @@
         <f t="shared" si="0"/>
         <v>14400</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J4" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1594,12 @@
         <f t="shared" si="0"/>
         <v>23247</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J5" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
@@ -1104,8 +1628,12 @@
         <f>G6*H6</f>
         <v>759.80000000000007</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J6" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
@@ -1134,8 +1662,12 @@
         <f t="shared" si="0"/>
         <v>3808.7999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
@@ -1164,8 +1696,12 @@
         <f t="shared" si="0"/>
         <v>1766.69</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J8" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
@@ -1194,8 +1730,12 @@
         <f t="shared" si="0"/>
         <v>2205</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J9" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -1224,8 +1764,12 @@
         <f t="shared" si="0"/>
         <v>1467.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J10" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -1254,8 +1798,12 @@
         <f t="shared" si="0"/>
         <v>467.96</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J11" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -1284,8 +1832,12 @@
         <f t="shared" si="0"/>
         <v>23247</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J12" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
@@ -1314,8 +1866,12 @@
         <f t="shared" si="0"/>
         <v>2997</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J13" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
@@ -1344,8 +1900,12 @@
         <f t="shared" si="0"/>
         <v>209.39999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J14" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -1374,8 +1934,12 @@
         <f t="shared" si="0"/>
         <v>1832.9399999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J15" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A16" s="12" t="s">
         <v>4</v>
       </c>
@@ -1404,8 +1968,12 @@
         <f t="shared" si="0"/>
         <v>1224</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J16" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -1434,8 +2002,12 @@
         <f t="shared" si="0"/>
         <v>1124.3300000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J17" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -1464,8 +2036,12 @@
         <f t="shared" si="0"/>
         <v>4450.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J18" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A19" s="12" t="s">
         <v>5</v>
       </c>
@@ -1494,8 +2070,12 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J19" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A20" s="12" t="s">
         <v>5</v>
       </c>
@@ -1524,8 +2104,12 @@
         <f t="shared" si="0"/>
         <v>1799.82</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J20" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A21" s="12" t="s">
         <v>5</v>
       </c>
@@ -1554,8 +2138,12 @@
         <f t="shared" si="0"/>
         <v>646.91999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J21" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -1584,8 +2172,12 @@
         <f t="shared" si="0"/>
         <v>2098.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J22" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A23" s="12" t="s">
         <v>5</v>
       </c>
@@ -1614,8 +2206,12 @@
         <f t="shared" si="0"/>
         <v>2213.59</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J23" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A24" s="12" t="s">
         <v>5</v>
       </c>
@@ -1644,8 +2240,12 @@
         <f t="shared" si="0"/>
         <v>6426</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J24" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A25" s="12" t="s">
         <v>4</v>
       </c>
@@ -1674,8 +2274,12 @@
         <f>G25*H25</f>
         <v>3005.52</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J25" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A26" s="12" t="s">
         <v>4</v>
       </c>
@@ -1701,11 +2305,15 @@
         <v>98.9</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" ref="I26" si="1">G26*H26</f>
+        <f t="shared" ref="I26" si="2">G26*H26</f>
         <v>1186.8000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J26" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A27" s="12" t="s">
         <v>42</v>
       </c>
@@ -1734,8 +2342,122 @@
         <f>G27*H27</f>
         <v>1196.79</v>
       </c>
+      <c r="J27" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Trimestre 3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA140E7E-A7D0-409C-A342-0C06EFBDE5CB}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="19.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="28">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="28">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="28">
+        <v>23247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="28">
+        <v>23247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="28">
+        <v>13464.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="28">
+        <v>3672.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="28">
+        <v>6335.2899999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="28">
+        <v>3456.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="28">
+        <v>51111.350000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>